--- a/delete.xlsx
+++ b/delete.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>professeurs</t>
-  </si>
-  <si>
-    <t>Basil</t>
-  </si>
-  <si>
-    <t>Huwart</t>
-  </si>
-  <si>
-    <t>etudiants</t>
   </si>
 </sst>
 </file>
@@ -141,7 +132,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C3" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C2" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="3">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Surname" id="2"/>
@@ -383,17 +374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
@@ -1387,7 +1368,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
